--- a/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 800-POS-POS1.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 800-POS-POS1.xlsx
@@ -19,7 +19,199 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="114">
+  <si>
+    <t>Signal_Value_4</t>
+  </si>
+  <si>
+    <t>Signal_Value_5</t>
+  </si>
+  <si>
+    <t>Signal_Value_6</t>
+  </si>
+  <si>
+    <t>Signal_Value_7</t>
+  </si>
+  <si>
+    <t>Signal_Value_8</t>
+  </si>
+  <si>
+    <t>Signal_Value_9</t>
+  </si>
+  <si>
+    <t>Signal_Value_10</t>
+  </si>
+  <si>
+    <t>Signal_Value_11</t>
+  </si>
+  <si>
+    <t>Signal_Value_12</t>
+  </si>
+  <si>
+    <t>Signal_Value_13</t>
+  </si>
+  <si>
+    <t>Signal_Value_14</t>
+  </si>
+  <si>
+    <t>Signal_Value_15</t>
+  </si>
+  <si>
+    <t>Signal_Value_16</t>
+  </si>
+  <si>
+    <t>Signal_Value_17</t>
+  </si>
+  <si>
+    <t>Signal_Value_18</t>
+  </si>
+  <si>
+    <t>Signal_Value_19</t>
+  </si>
+  <si>
+    <t>Signal_Value_20</t>
+  </si>
+  <si>
+    <t>Signal_Value_21</t>
+  </si>
+  <si>
+    <t>Signal_Value_22</t>
+  </si>
+  <si>
+    <t>Signal_Value_23</t>
+  </si>
+  <si>
+    <t>Signal_Value_24</t>
+  </si>
+  <si>
+    <t>Signal_Value_25</t>
+  </si>
+  <si>
+    <t>Signal_Value_26</t>
+  </si>
+  <si>
+    <t>Signal_Value_27</t>
+  </si>
+  <si>
+    <t>Signal_Value_28</t>
+  </si>
+  <si>
+    <t>Signal_Value_29</t>
+  </si>
+  <si>
+    <t>Signal_Value_30</t>
+  </si>
+  <si>
+    <t>Signal_Value_31</t>
+  </si>
+  <si>
+    <t>Signal_Value_32</t>
+  </si>
+  <si>
+    <t>Signal_Value_33</t>
+  </si>
+  <si>
+    <t>Signal_Value_34</t>
+  </si>
+  <si>
+    <t>Signal_Value_35</t>
+  </si>
+  <si>
+    <t>Signal_Value_36</t>
+  </si>
+  <si>
+    <t>Signal_Value_37</t>
+  </si>
+  <si>
+    <t>Signal_Value_38</t>
+  </si>
+  <si>
+    <t>Signal_Value_39</t>
+  </si>
+  <si>
+    <t>Signal_Value_40</t>
+  </si>
+  <si>
+    <t>Signal_Value_41</t>
+  </si>
+  <si>
+    <t>Signal_Value_42</t>
+  </si>
+  <si>
+    <t>Signal_Value_43</t>
+  </si>
+  <si>
+    <t>Signal_Value_44</t>
+  </si>
+  <si>
+    <t>Signal_Value_45</t>
+  </si>
+  <si>
+    <t>Signal_Value_46</t>
+  </si>
+  <si>
+    <t>Signal_Value_47</t>
+  </si>
+  <si>
+    <t>Signal_Value_48</t>
+  </si>
+  <si>
+    <t>Signal_Value_49</t>
+  </si>
+  <si>
+    <t>Signal_Value_50</t>
+  </si>
+  <si>
+    <t>Signal_Value_51</t>
+  </si>
+  <si>
+    <t>Signal_Value_52</t>
+  </si>
+  <si>
+    <t>Signal_Value_53</t>
+  </si>
+  <si>
+    <t>Signal_Value_54</t>
+  </si>
+  <si>
+    <t>Signal_Value_55</t>
+  </si>
+  <si>
+    <t>Signal_Value_56</t>
+  </si>
+  <si>
+    <t>Signal_Value_57</t>
+  </si>
+  <si>
+    <t>Signal_Value_58</t>
+  </si>
+  <si>
+    <t>Signal_Value_59</t>
+  </si>
+  <si>
+    <t>Signal_Value_60</t>
+  </si>
+  <si>
+    <t>Signal_Value_61</t>
+  </si>
+  <si>
+    <t>Signal_Value_62</t>
+  </si>
+  <si>
+    <t>Signal_Value_63</t>
+  </si>
+  <si>
+    <t>Signal_Value_64</t>
+  </si>
+  <si>
+    <t>Signal_Value_65</t>
+  </si>
+  <si>
+    <t>Signal_Value_66</t>
+  </si>
+  <si>
+    <t>Signal_Value_67</t>
+  </si>
   <si>
     <t>Signal_Value_68</t>
   </si>
@@ -93,87 +285,6 @@
     <t>Signal_Value_91</t>
   </si>
   <si>
-    <t>Signal_Value_92</t>
-  </si>
-  <si>
-    <t>Signal_Value_93</t>
-  </si>
-  <si>
-    <t>Signal_Value_94</t>
-  </si>
-  <si>
-    <t>Signal_Value_95</t>
-  </si>
-  <si>
-    <t>Signal_Value_96</t>
-  </si>
-  <si>
-    <t>Signal_Value_97</t>
-  </si>
-  <si>
-    <t>Signal_Value_98</t>
-  </si>
-  <si>
-    <t>Signal_Value_99</t>
-  </si>
-  <si>
-    <t>Signal_Value_100</t>
-  </si>
-  <si>
-    <t>Signal_Value_101</t>
-  </si>
-  <si>
-    <t>Signal_Value_102</t>
-  </si>
-  <si>
-    <t>Signal_Value_103</t>
-  </si>
-  <si>
-    <t>Signal_Value_104</t>
-  </si>
-  <si>
-    <t>Signal_Value_105</t>
-  </si>
-  <si>
-    <t>Signal_Value_106</t>
-  </si>
-  <si>
-    <t>Signal_Value_107</t>
-  </si>
-  <si>
-    <t>Signal_Value_108</t>
-  </si>
-  <si>
-    <t>Signal_Value_109</t>
-  </si>
-  <si>
-    <t>Signal_Value_110</t>
-  </si>
-  <si>
-    <t>Signal_Value_111</t>
-  </si>
-  <si>
-    <t>Signal_Value_112</t>
-  </si>
-  <si>
-    <t>Signal_Value_113</t>
-  </si>
-  <si>
-    <t>Signal_Value_114</t>
-  </si>
-  <si>
-    <t>Signal_Value_115</t>
-  </si>
-  <si>
-    <t>Signal_Value_116</t>
-  </si>
-  <si>
-    <t>Signal_Value_117</t>
-  </si>
-  <si>
-    <t>Signal_Value_118</t>
-  </si>
-  <si>
     <t>Segment_ID</t>
   </si>
   <si>
@@ -246,10 +357,7 @@
     <t>Tread</t>
   </si>
   <si>
-    <t>11R22.5</t>
-  </si>
-  <si>
-    <t>702ZE-i</t>
+    <t>275-80R22.5</t>
   </si>
   <si>
     <t>Empty</t>
@@ -610,15 +718,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AZ6"/>
+  <dimension ref="A1:CK6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:52">
+    <row r="1" spans="1:89">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -773,10 +881,121 @@
       <c r="AZ1" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="2" spans="1:52">
+    <row r="2" spans="1:89">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -785,100 +1004,100 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0011903323588199</v>
+        <v>0.02038159111028509</v>
       </c>
       <c r="E2">
-        <v>0.0001143931049121958</v>
+        <v>0.09990749047954285</v>
       </c>
       <c r="F2">
-        <v>0.004933497048845818</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.003872142264679682</v>
+        <v>0.05183212342095608</v>
       </c>
       <c r="H2">
-        <v>0.01904102865318157</v>
+        <v>0.21316370742282</v>
       </c>
       <c r="I2">
-        <v>0.0001231248668537303</v>
+        <v>0.111343193883225</v>
       </c>
       <c r="J2">
-        <v>0.001038892853683648</v>
+        <v>0.05830345430717319</v>
       </c>
       <c r="K2">
-        <v>0.04390329284253638</v>
+        <v>0.007368282363834119</v>
       </c>
       <c r="L2">
-        <v>0.003202662050780795</v>
+        <v>0.007109739573397849</v>
       </c>
       <c r="M2">
-        <v>0.1062750690521292</v>
+        <v>0.1089918923251091</v>
       </c>
       <c r="N2">
-        <v>0.05749261196704977</v>
+        <v>0.1035365515808786</v>
       </c>
       <c r="O2">
-        <v>0.0008199061058816873</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.01137716252005849</v>
+        <v>0.001473997551342438</v>
       </c>
       <c r="Q2">
-        <v>0.03136697901201873</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.09260372334381928</v>
+        <v>0.001172853224935844</v>
       </c>
       <c r="S2">
-        <v>0.0262692005923157</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.002736808311836542</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0002895322202749967</v>
+        <v>0.004794525099890043</v>
       </c>
       <c r="V2">
-        <v>0.009446127466485035</v>
+        <v>0.001449487562711178</v>
       </c>
       <c r="W2">
-        <v>0.0005447810636094866</v>
+        <v>0.001133700505169633</v>
       </c>
       <c r="X2">
-        <v>0.02898076171793989</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.08630755402185152</v>
+        <v>0.00119426253660134</v>
       </c>
       <c r="Z2">
-        <v>0.113200822103125</v>
+        <v>0.05694088275559753</v>
       </c>
       <c r="AA2">
-        <v>0.09678215766998295</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.03700795684551582</v>
+        <v>0.009776649767228677</v>
       </c>
       <c r="AC2">
-        <v>3.320251492577114E-05</v>
+        <v>0.01681051897050437</v>
       </c>
       <c r="AD2">
-        <v>0.01567389530941826</v>
+        <v>0.0004511197888925861</v>
       </c>
       <c r="AE2">
-        <v>0.03504389054181357</v>
+        <v>0.02510610282790455</v>
       </c>
       <c r="AF2">
-        <v>0.04689318211274438</v>
+        <v>0.06141115084186961</v>
       </c>
       <c r="AG2">
-        <v>0.04562576551187244</v>
+        <v>0.03590179077665815</v>
       </c>
       <c r="AH2">
-        <v>0.04557609062001747</v>
+        <v>0.0004449313234724049</v>
       </c>
       <c r="AI2">
-        <v>0.03223345333102041</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -931,10 +1150,121 @@
       <c r="AZ2">
         <v>0</v>
       </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:52">
+    <row r="3" spans="1:89">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -979,100 +1309,100 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.009762057339188694</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.01257140510399346</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0001254130620571746</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.002010496946789108</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.00105563675557401</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.01265538608511595</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0237535403988456</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.007170563258973982</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.1184309631841313</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.06676081730837156</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0007344773726066495</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.01420191198176422</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.1193408175555716</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.06534275929690497</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.005642900462067035</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.004940544114384627</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.00554576505816774</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.003371804970346763</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.02796400378843474</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.04313900522567976</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.07220690872461086</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.07643631948488701</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.04701763439903821</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.02177460638584702</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.002147807693407407</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.00963193031313048</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.04466089168722853</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.05087709721806949</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.04778061417766621</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.04499373473843602</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.03795218590870971</v>
+        <v>0</v>
       </c>
       <c r="AV3">
         <v>0</v>
@@ -1089,10 +1419,121 @@
       <c r="AZ3">
         <v>0</v>
       </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0.1274061691397296</v>
+      </c>
+      <c r="BG3">
+        <v>0.004111693684594474</v>
+      </c>
+      <c r="BH3">
+        <v>0.01491106165689061</v>
+      </c>
+      <c r="BI3">
+        <v>0.1536382938820636</v>
+      </c>
+      <c r="BJ3">
+        <v>0.04571019677411581</v>
+      </c>
+      <c r="BK3">
+        <v>0.02019501094145662</v>
+      </c>
+      <c r="BL3">
+        <v>0.009753155630932908</v>
+      </c>
+      <c r="BM3">
+        <v>0.06892431383661124</v>
+      </c>
+      <c r="BN3">
+        <v>0.1047316292848889</v>
+      </c>
+      <c r="BO3">
+        <v>0.05238261629654128</v>
+      </c>
+      <c r="BP3">
+        <v>0.01233677768716445</v>
+      </c>
+      <c r="BQ3">
+        <v>0.01010527937507796</v>
+      </c>
+      <c r="BR3">
+        <v>0.002359079451259996</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0.0007798422525671307</v>
+      </c>
+      <c r="BU3">
+        <v>0.0004934277420907457</v>
+      </c>
+      <c r="BV3">
+        <v>0.009705144616456413</v>
+      </c>
+      <c r="BW3">
+        <v>0.003232827217223966</v>
+      </c>
+      <c r="BX3">
+        <v>0.001365076914682163</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0.01382650857680145</v>
+      </c>
+      <c r="CA3">
+        <v>0.1111798705886336</v>
+      </c>
+      <c r="CB3">
+        <v>0.008521230950475835</v>
+      </c>
+      <c r="CC3">
+        <v>0.02007693708049017</v>
+      </c>
+      <c r="CD3">
+        <v>0.01045214468766923</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0.01227874754320569</v>
+      </c>
+      <c r="CG3">
+        <v>0.0195240911684843</v>
+      </c>
+      <c r="CH3">
+        <v>0.04101180830396398</v>
+      </c>
+      <c r="CI3">
+        <v>0.000695673735751737</v>
+      </c>
+      <c r="CJ3">
+        <v>0.01180492588391523</v>
+      </c>
+      <c r="CK3">
+        <v>0.1084864650962609</v>
+      </c>
     </row>
-    <row r="4" spans="1:52">
+    <row r="4" spans="1:89">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1152,105 +1593,216 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.004101843747496193</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.002126849809040123</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0254828861848856</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.004637544873821967</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.08337002471449584</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.03937571796311472</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0726200997068765</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.1576445873669807</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0001152645839407412</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.05757287766844607</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.02479761036265294</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.03423232218170411</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.03996063416187264</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.006943121612599087</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.08238679870309816</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.03798758532290322</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.0002418199661776532</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.001460506488745207</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.01360770385115233</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.004492584494620058</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.0008300582897182608</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.001441066758933603</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.02889406798592849</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.06862044795774333</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.05963038137531943</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.02661749050258676</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.0144911470098883</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.003765264333128408</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.003723858797585003</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.0256680461379492</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.03577520964068703</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.03738457744590843</v>
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0.1919606724593967</v>
+      </c>
+      <c r="BG4">
+        <v>0.006198606306903788</v>
+      </c>
+      <c r="BH4">
+        <v>0.02733042802523118</v>
+      </c>
+      <c r="BI4">
+        <v>0.1339964789279205</v>
+      </c>
+      <c r="BJ4">
+        <v>0.08152215267586914</v>
+      </c>
+      <c r="BK4">
+        <v>0.04786111645475422</v>
+      </c>
+      <c r="BL4">
+        <v>0.003634701250232628</v>
+      </c>
+      <c r="BM4">
+        <v>0.008138748317688689</v>
+      </c>
+      <c r="BN4">
+        <v>0.1163655825391827</v>
+      </c>
+      <c r="BO4">
+        <v>0.08981846712403489</v>
+      </c>
+      <c r="BP4">
+        <v>0.0003919613242846406</v>
+      </c>
+      <c r="BQ4">
+        <v>0.002485564323943558</v>
+      </c>
+      <c r="BR4">
+        <v>0.0002102319374151523</v>
+      </c>
+      <c r="BS4">
+        <v>0.002451402038806085</v>
+      </c>
+      <c r="BT4">
+        <v>8.035944347934969E-06</v>
+      </c>
+      <c r="BU4">
+        <v>0.01741363430974529</v>
+      </c>
+      <c r="BV4">
+        <v>0.0001608589421612218</v>
+      </c>
+      <c r="BW4">
+        <v>6.468322974550234E-05</v>
+      </c>
+      <c r="BX4">
+        <v>0.004631318404731599</v>
+      </c>
+      <c r="BY4">
+        <v>0.002131416921790871</v>
+      </c>
+      <c r="BZ4">
+        <v>0.007988541461086256</v>
+      </c>
+      <c r="CA4">
+        <v>0.1075807625388525</v>
+      </c>
+      <c r="CB4">
+        <v>6.394932240321569E-05</v>
+      </c>
+      <c r="CC4">
+        <v>0.009842642756215271</v>
+      </c>
+      <c r="CD4">
+        <v>0.00633130403012476</v>
+      </c>
+      <c r="CE4">
+        <v>0.001742336731940944</v>
+      </c>
+      <c r="CF4">
+        <v>0.03172224389446159</v>
+      </c>
+      <c r="CG4">
+        <v>0.02337497629012236</v>
+      </c>
+      <c r="CH4">
+        <v>0.01796421043944107</v>
+      </c>
+      <c r="CI4">
+        <v>0.0005207201624146293</v>
+      </c>
+      <c r="CJ4">
+        <v>0.002098433749718408</v>
+      </c>
+      <c r="CK4">
+        <v>0.05399381716503275</v>
       </c>
     </row>
-    <row r="5" spans="1:52">
+    <row r="5" spans="1:89">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1292,100 +1844,100 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.001288783265008252</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.02146366367344939</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.02630234485725805</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0005055088055484144</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0.01591605814335548</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.002211416456204337</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.01113415186547881</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0317029832051848</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.006855561971379917</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.1265716915765806</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.06323274136098815</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.001014960453771227</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.02701088670360674</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.1223305530024543</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.04740476965246886</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.01036462847732709</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.002239992914217984</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0005613367348880496</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.001225377329815058</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.01747797029961316</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.0567119031650217</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.09053368728373566</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.07779250905865999</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.04147425060237175</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.01064586090810249</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>8.240707923200229E-05</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.01681934858042383</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.04145471979297046</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.04391862896664648</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.04218130907424867</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.04156999473998844</v>
+        <v>0</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1405,10 +1957,121 @@
       <c r="AZ5">
         <v>0</v>
       </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0.033337386274938</v>
+      </c>
+      <c r="BF5">
+        <v>0.03973512483260142</v>
+      </c>
+      <c r="BG5">
+        <v>0.05316074705716568</v>
+      </c>
+      <c r="BH5">
+        <v>0.01782479330676925</v>
+      </c>
+      <c r="BI5">
+        <v>0.125895288494664</v>
+      </c>
+      <c r="BJ5">
+        <v>0.1667975521156569</v>
+      </c>
+      <c r="BK5">
+        <v>0.0001486948263312137</v>
+      </c>
+      <c r="BL5">
+        <v>0.0282287664428696</v>
+      </c>
+      <c r="BM5">
+        <v>0.0270442768571067</v>
+      </c>
+      <c r="BN5">
+        <v>0.1512937020912544</v>
+      </c>
+      <c r="BO5">
+        <v>0.03523284413670597</v>
+      </c>
+      <c r="BP5">
+        <v>0.001503335557261162</v>
+      </c>
+      <c r="BQ5">
+        <v>0.0009663333801928341</v>
+      </c>
+      <c r="BR5">
+        <v>0.0002142149644114564</v>
+      </c>
+      <c r="BS5">
+        <v>0.0001726653312093509</v>
+      </c>
+      <c r="BT5">
+        <v>0.01649924939602685</v>
+      </c>
+      <c r="BU5">
+        <v>9.133592501900179E-05</v>
+      </c>
+      <c r="BV5">
+        <v>0.01337652581095321</v>
+      </c>
+      <c r="BW5">
+        <v>0.005060502774490956</v>
+      </c>
+      <c r="BX5">
+        <v>0.005951488121645399</v>
+      </c>
+      <c r="BY5">
+        <v>0.04145396898070489</v>
+      </c>
+      <c r="BZ5">
+        <v>0.03404952291888044</v>
+      </c>
+      <c r="CA5">
+        <v>0.0004022385569399019</v>
+      </c>
+      <c r="CB5">
+        <v>0.0137172018570841</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0.01897971319962004</v>
+      </c>
+      <c r="CE5">
+        <v>0.00322945433911796</v>
+      </c>
+      <c r="CF5">
+        <v>0.05503314051273351</v>
+      </c>
+      <c r="CG5">
+        <v>0.07045363857401084</v>
+      </c>
+      <c r="CH5">
+        <v>0.03404952291888044</v>
+      </c>
+      <c r="CI5">
+        <v>0.006096770444754437</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:52">
+    <row r="6" spans="1:89">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1453,100 +2116,100 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.02225719073078396</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.02087248750327497</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.001725834812458719</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0005604788316746902</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.02002532926442816</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>9.951377852908621E-06</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.02912156105352934</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0311685913868772</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.01511730530559662</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.1485467670526777</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.05392051166604043</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0002792232863893162</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.05598828791756419</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.120172106354932</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.03335789158253076</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0009361248507015065</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0003171820182554921</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0008490780662810355</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>5.35588891094146E-05</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.00168420470692646</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.03652855756337905</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.08986194679847632</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.08278295817904573</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.04904946169136536</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.01385909030322538</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.0007549951241792199</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.02255898547387824</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.03564804183857632</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.03353796290151277</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.0279729627026682</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.02625539110720449</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.02422597965860379</v>
+        <v>0</v>
       </c>
       <c r="AV6">
         <v>0</v>
@@ -1561,6 +2224,117 @@
         <v>0</v>
       </c>
       <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0.03818166562786694</v>
+      </c>
+      <c r="BF6">
+        <v>0.07118886405561463</v>
+      </c>
+      <c r="BG6">
+        <v>0.04459603555059011</v>
+      </c>
+      <c r="BH6">
+        <v>0.01912321706520952</v>
+      </c>
+      <c r="BI6">
+        <v>0.1489895909605597</v>
+      </c>
+      <c r="BJ6">
+        <v>0.1279825642922736</v>
+      </c>
+      <c r="BK6">
+        <v>0.01594126468640938</v>
+      </c>
+      <c r="BL6">
+        <v>0.00409429951119748</v>
+      </c>
+      <c r="BM6">
+        <v>0.002614687254259718</v>
+      </c>
+      <c r="BN6">
+        <v>0.1930361458001461</v>
+      </c>
+      <c r="BO6">
+        <v>0.01791868008727469</v>
+      </c>
+      <c r="BP6">
+        <v>0.01169459634649615</v>
+      </c>
+      <c r="BQ6">
+        <v>0.001622991358714661</v>
+      </c>
+      <c r="BR6">
+        <v>0.0005372949544199941</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0.004333464378523144</v>
+      </c>
+      <c r="BU6">
+        <v>0.009206503433303268</v>
+      </c>
+      <c r="BV6">
+        <v>0.002852486351800416</v>
+      </c>
+      <c r="BW6">
+        <v>0.0008915912983548584</v>
+      </c>
+      <c r="BX6">
+        <v>0.002795284537164205</v>
+      </c>
+      <c r="BY6">
+        <v>0.003840977363307751</v>
+      </c>
+      <c r="BZ6">
+        <v>0.05221446886308145</v>
+      </c>
+      <c r="CA6">
+        <v>0.032143071262645</v>
+      </c>
+      <c r="CB6">
+        <v>0.01460775332286305</v>
+      </c>
+      <c r="CC6">
+        <v>0.001533745861994302</v>
+      </c>
+      <c r="CD6">
+        <v>0.01687392672033314</v>
+      </c>
+      <c r="CE6">
+        <v>0.0002855974657641489</v>
+      </c>
+      <c r="CF6">
+        <v>0.03595588247744563</v>
+      </c>
+      <c r="CG6">
+        <v>0.07833588218315406</v>
+      </c>
+      <c r="CH6">
+        <v>0.03186488898532318</v>
+      </c>
+      <c r="CI6">
+        <v>0.002384574338321564</v>
+      </c>
+      <c r="CJ6">
+        <v>0.01235800360558829</v>
+      </c>
+      <c r="CK6">
         <v>0</v>
       </c>
     </row>
@@ -1571,15 +2345,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AZ6"/>
+  <dimension ref="A1:CK6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:52">
+    <row r="1" spans="1:89">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1734,10 +2508,121 @@
       <c r="AZ1" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="2" spans="1:52">
+    <row r="2" spans="1:89">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1746,97 +2631,97 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0011903323588199</v>
+        <v>0.02038159111028509</v>
       </c>
       <c r="E2">
-        <v>0.001304725463732096</v>
+        <v>0.1202890815898279</v>
       </c>
       <c r="F2">
-        <v>0.006238222512577914</v>
+        <v>0.1202890815898279</v>
       </c>
       <c r="G2">
-        <v>0.0101103647772576</v>
+        <v>0.172121205010784</v>
       </c>
       <c r="H2">
-        <v>0.02915139343043916</v>
+        <v>0.385284912433604</v>
       </c>
       <c r="I2">
-        <v>0.02927451829729289</v>
+        <v>0.496628106316829</v>
       </c>
       <c r="J2">
-        <v>0.03031341115097654</v>
+        <v>0.5549315606240022</v>
       </c>
       <c r="K2">
-        <v>0.07421670399351292</v>
+        <v>0.5622998429878363</v>
       </c>
       <c r="L2">
-        <v>0.07741936604429371</v>
+        <v>0.5694095825612342</v>
       </c>
       <c r="M2">
-        <v>0.1836944350964229</v>
+        <v>0.6784014748863433</v>
       </c>
       <c r="N2">
-        <v>0.2411870470634727</v>
+        <v>0.7819380264672219</v>
       </c>
       <c r="O2">
-        <v>0.2420069531693544</v>
+        <v>0.7819380264672219</v>
       </c>
       <c r="P2">
-        <v>0.2533841156894129</v>
+        <v>0.7834120240185644</v>
       </c>
       <c r="Q2">
-        <v>0.2847510947014316</v>
+        <v>0.7834120240185644</v>
       </c>
       <c r="R2">
-        <v>0.3773548180452509</v>
+        <v>0.7845848772435002</v>
       </c>
       <c r="S2">
-        <v>0.4036240186375666</v>
+        <v>0.7845848772435002</v>
       </c>
       <c r="T2">
-        <v>0.4063608269494031</v>
+        <v>0.7845848772435002</v>
       </c>
       <c r="U2">
-        <v>0.4066503591696781</v>
+        <v>0.7893794023433903</v>
       </c>
       <c r="V2">
-        <v>0.4160964866361632</v>
+        <v>0.7908288899061015</v>
       </c>
       <c r="W2">
-        <v>0.4166412676997727</v>
+        <v>0.791962590411271</v>
       </c>
       <c r="X2">
-        <v>0.4456220294177126</v>
+        <v>0.791962590411271</v>
       </c>
       <c r="Y2">
-        <v>0.5319295834395641</v>
+        <v>0.7931568529478724</v>
       </c>
       <c r="Z2">
-        <v>0.6451304055426891</v>
+        <v>0.8500977357034699</v>
       </c>
       <c r="AA2">
-        <v>0.7419125632126721</v>
+        <v>0.8500977357034699</v>
       </c>
       <c r="AB2">
-        <v>0.7789205200581879</v>
+        <v>0.8598743854706986</v>
       </c>
       <c r="AC2">
-        <v>0.7789537225731137</v>
+        <v>0.876684904441203</v>
       </c>
       <c r="AD2">
-        <v>0.7946276178825319</v>
+        <v>0.8771360242300955</v>
       </c>
       <c r="AE2">
-        <v>0.8296715084243454</v>
+        <v>0.9022421270580001</v>
       </c>
       <c r="AF2">
-        <v>0.8765646905370899</v>
+        <v>0.9636532778998698</v>
       </c>
       <c r="AG2">
-        <v>0.9221904560489623</v>
+        <v>0.9995550686765279</v>
       </c>
       <c r="AH2">
-        <v>0.9677665466689798</v>
+        <v>1</v>
       </c>
       <c r="AI2">
         <v>1</v>
@@ -1892,10 +2777,121 @@
       <c r="AZ2">
         <v>1</v>
       </c>
+      <c r="BA2">
+        <v>1</v>
+      </c>
+      <c r="BB2">
+        <v>1</v>
+      </c>
+      <c r="BC2">
+        <v>1</v>
+      </c>
+      <c r="BD2">
+        <v>1</v>
+      </c>
+      <c r="BE2">
+        <v>1</v>
+      </c>
+      <c r="BF2">
+        <v>1</v>
+      </c>
+      <c r="BG2">
+        <v>1</v>
+      </c>
+      <c r="BH2">
+        <v>1</v>
+      </c>
+      <c r="BI2">
+        <v>1</v>
+      </c>
+      <c r="BJ2">
+        <v>1</v>
+      </c>
+      <c r="BK2">
+        <v>1</v>
+      </c>
+      <c r="BL2">
+        <v>1</v>
+      </c>
+      <c r="BM2">
+        <v>1</v>
+      </c>
+      <c r="BN2">
+        <v>1</v>
+      </c>
+      <c r="BO2">
+        <v>1</v>
+      </c>
+      <c r="BP2">
+        <v>1</v>
+      </c>
+      <c r="BQ2">
+        <v>1</v>
+      </c>
+      <c r="BR2">
+        <v>1</v>
+      </c>
+      <c r="BS2">
+        <v>1</v>
+      </c>
+      <c r="BT2">
+        <v>1</v>
+      </c>
+      <c r="BU2">
+        <v>1</v>
+      </c>
+      <c r="BV2">
+        <v>1</v>
+      </c>
+      <c r="BW2">
+        <v>1</v>
+      </c>
+      <c r="BX2">
+        <v>1</v>
+      </c>
+      <c r="BY2">
+        <v>1</v>
+      </c>
+      <c r="BZ2">
+        <v>1</v>
+      </c>
+      <c r="CA2">
+        <v>1</v>
+      </c>
+      <c r="CB2">
+        <v>1</v>
+      </c>
+      <c r="CC2">
+        <v>1</v>
+      </c>
+      <c r="CD2">
+        <v>1</v>
+      </c>
+      <c r="CE2">
+        <v>1</v>
+      </c>
+      <c r="CF2">
+        <v>1</v>
+      </c>
+      <c r="CG2">
+        <v>1</v>
+      </c>
+      <c r="CH2">
+        <v>1</v>
+      </c>
+      <c r="CI2">
+        <v>1</v>
+      </c>
+      <c r="CJ2">
+        <v>1</v>
+      </c>
+      <c r="CK2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:52">
+    <row r="3" spans="1:89">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1940,120 +2936,231 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.009762057339188694</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.02233346244318216</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.02233346244318216</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.02245887550523933</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.02446937245202844</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.02552500920760245</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0381803952927184</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.061933935691564</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.06910449895053798</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.1875354621346693</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.2542962794430408</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.2550307568156475</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.2692326687974117</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.3885734863529833</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.4539162456498883</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.4595591461119553</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.4644996902263399</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.4700454552845076</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.4734172602548544</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.5013812640432892</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.544520269268969</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.6167271779935799</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.693163497478467</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.7401811318775051</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.7619557382633522</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.7641035459567596</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.77373547626989</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.8183963679571186</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.8692734651751881</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.9170540793528543</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.9620478140912904</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0.1274061691397296</v>
+      </c>
+      <c r="BG3">
+        <v>0.1315178628243241</v>
+      </c>
+      <c r="BH3">
+        <v>0.1464289244812147</v>
+      </c>
+      <c r="BI3">
+        <v>0.3000672183632783</v>
+      </c>
+      <c r="BJ3">
+        <v>0.3457774151373941</v>
+      </c>
+      <c r="BK3">
+        <v>0.3659724260788507</v>
+      </c>
+      <c r="BL3">
+        <v>0.3757255817097837</v>
+      </c>
+      <c r="BM3">
+        <v>0.4446498955463949</v>
+      </c>
+      <c r="BN3">
+        <v>0.5493815248312838</v>
+      </c>
+      <c r="BO3">
+        <v>0.6017641411278251</v>
+      </c>
+      <c r="BP3">
+        <v>0.6141009188149895</v>
+      </c>
+      <c r="BQ3">
+        <v>0.6242061981900675</v>
+      </c>
+      <c r="BR3">
+        <v>0.6265652776413275</v>
+      </c>
+      <c r="BS3">
+        <v>0.6265652776413275</v>
+      </c>
+      <c r="BT3">
+        <v>0.6273451198938946</v>
+      </c>
+      <c r="BU3">
+        <v>0.6278385476359853</v>
+      </c>
+      <c r="BV3">
+        <v>0.6375436922524418</v>
+      </c>
+      <c r="BW3">
+        <v>0.6407765194696657</v>
+      </c>
+      <c r="BX3">
+        <v>0.6421415963843479</v>
+      </c>
+      <c r="BY3">
+        <v>0.6421415963843479</v>
+      </c>
+      <c r="BZ3">
+        <v>0.6559681049611493</v>
+      </c>
+      <c r="CA3">
+        <v>0.767147975549783</v>
+      </c>
+      <c r="CB3">
+        <v>0.7756692065002588</v>
+      </c>
+      <c r="CC3">
+        <v>0.795746143580749</v>
+      </c>
+      <c r="CD3">
+        <v>0.8061982882684182</v>
+      </c>
+      <c r="CE3">
+        <v>0.8061982882684182</v>
+      </c>
+      <c r="CF3">
+        <v>0.8184770358116239</v>
+      </c>
+      <c r="CG3">
+        <v>0.8380011269801082</v>
+      </c>
+      <c r="CH3">
+        <v>0.8790129352840722</v>
+      </c>
+      <c r="CI3">
+        <v>0.879708609019824</v>
+      </c>
+      <c r="CJ3">
+        <v>0.8915135349037392</v>
+      </c>
+      <c r="CK3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:52">
+    <row r="4" spans="1:89">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2113,105 +3220,216 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.004101843747496193</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.006228693556536316</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.03171157974142192</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.03634912461524389</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.1197191493297397</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.1590948672928545</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.231714966999731</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.3893595543667117</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.3894748189506524</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.4470476966190985</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.4718453069817514</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.5060776291634556</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.5460382633253282</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.5529813849379274</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.6353681836410255</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.6733557689639288</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.6735975889301065</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.6750580954188516</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.6886657992700039</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.693158383764624</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.6939884420543423</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.6954295088132759</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.7243235767992044</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.7929440247569478</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.8525744061322672</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.879191896634854</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.8936830436447423</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.8974483079778707</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.9011721667754556</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.9268402129134048</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.9626154225540918</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0.1919606724593967</v>
+      </c>
+      <c r="BG4">
+        <v>0.1981592787663005</v>
+      </c>
+      <c r="BH4">
+        <v>0.2254897067915316</v>
+      </c>
+      <c r="BI4">
+        <v>0.3594861857194521</v>
+      </c>
+      <c r="BJ4">
+        <v>0.4410083383953213</v>
+      </c>
+      <c r="BK4">
+        <v>0.4888694548500755</v>
+      </c>
+      <c r="BL4">
+        <v>0.4925041561003081</v>
+      </c>
+      <c r="BM4">
+        <v>0.5006429044179969</v>
+      </c>
+      <c r="BN4">
+        <v>0.6170084869571796</v>
+      </c>
+      <c r="BO4">
+        <v>0.7068269540812144</v>
+      </c>
+      <c r="BP4">
+        <v>0.7072189154054991</v>
+      </c>
+      <c r="BQ4">
+        <v>0.7097044797294426</v>
+      </c>
+      <c r="BR4">
+        <v>0.7099147116668578</v>
+      </c>
+      <c r="BS4">
+        <v>0.7123661137056639</v>
+      </c>
+      <c r="BT4">
+        <v>0.7123741496500119</v>
+      </c>
+      <c r="BU4">
+        <v>0.7297877839597572</v>
+      </c>
+      <c r="BV4">
+        <v>0.7299486429019184</v>
+      </c>
+      <c r="BW4">
+        <v>0.7300133261316639</v>
+      </c>
+      <c r="BX4">
+        <v>0.7346446445363956</v>
+      </c>
+      <c r="BY4">
+        <v>0.7367760614581864</v>
+      </c>
+      <c r="BZ4">
+        <v>0.7447646029192727</v>
+      </c>
+      <c r="CA4">
+        <v>0.8523453654581252</v>
+      </c>
+      <c r="CB4">
+        <v>0.8524093147805284</v>
+      </c>
+      <c r="CC4">
+        <v>0.8622519575367437</v>
+      </c>
+      <c r="CD4">
+        <v>0.8685832615668684</v>
+      </c>
+      <c r="CE4">
+        <v>0.8703255982988093</v>
+      </c>
+      <c r="CF4">
+        <v>0.9020478421932708</v>
+      </c>
+      <c r="CG4">
+        <v>0.9254228184833931</v>
+      </c>
+      <c r="CH4">
+        <v>0.9433870289228342</v>
+      </c>
+      <c r="CI4">
+        <v>0.9439077490852489</v>
+      </c>
+      <c r="CJ4">
+        <v>0.9460061828349673</v>
+      </c>
+      <c r="CK4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:52">
+    <row r="5" spans="1:89">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2253,123 +3471,234 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.001288783265008252</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.02275244693845764</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.04905479179571569</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0495603006012641</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0495603006012641</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.06547635874461959</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.06768777520082392</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.07882192706630273</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.1105249102714875</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.1173804722428674</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.243952163819448</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.3071849051804362</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.3081998656342074</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.3352107523378142</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.4575413053402685</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.5049460749927374</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.5153107034700645</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.5175506963842824</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.5181120331191704</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.5193374104489855</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.5368153807485987</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.5935272839136204</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.6840609711973561</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.7618534802560161</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.8033277308583878</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.8139735917664903</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.8140559988457223</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.8308753474261461</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.8723300672191165</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.916248696185763</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.9584300052600117</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0.033337386274938</v>
+      </c>
+      <c r="BF5">
+        <v>0.07307251110753941</v>
+      </c>
+      <c r="BG5">
+        <v>0.1262332581647051</v>
+      </c>
+      <c r="BH5">
+        <v>0.1440580514714744</v>
+      </c>
+      <c r="BI5">
+        <v>0.2699533399661384</v>
+      </c>
+      <c r="BJ5">
+        <v>0.4367508920817953</v>
+      </c>
+      <c r="BK5">
+        <v>0.4368995869081265</v>
+      </c>
+      <c r="BL5">
+        <v>0.4651283533509961</v>
+      </c>
+      <c r="BM5">
+        <v>0.4921726302081028</v>
+      </c>
+      <c r="BN5">
+        <v>0.6434663322993572</v>
+      </c>
+      <c r="BO5">
+        <v>0.6786991764360633</v>
+      </c>
+      <c r="BP5">
+        <v>0.6802025119933244</v>
+      </c>
+      <c r="BQ5">
+        <v>0.6811688453735172</v>
+      </c>
+      <c r="BR5">
+        <v>0.6813830603379286</v>
+      </c>
+      <c r="BS5">
+        <v>0.6815557256691379</v>
+      </c>
+      <c r="BT5">
+        <v>0.6980549750651648</v>
+      </c>
+      <c r="BU5">
+        <v>0.6981463109901838</v>
+      </c>
+      <c r="BV5">
+        <v>0.7115228368011369</v>
+      </c>
+      <c r="BW5">
+        <v>0.7165833395756279</v>
+      </c>
+      <c r="BX5">
+        <v>0.7225348276972733</v>
+      </c>
+      <c r="BY5">
+        <v>0.7639887966779781</v>
+      </c>
+      <c r="BZ5">
+        <v>0.7980383195968586</v>
+      </c>
+      <c r="CA5">
+        <v>0.7984405581537984</v>
+      </c>
+      <c r="CB5">
+        <v>0.8121577600108826</v>
+      </c>
+      <c r="CC5">
+        <v>0.8121577600108826</v>
+      </c>
+      <c r="CD5">
+        <v>0.8311374732105026</v>
+      </c>
+      <c r="CE5">
+        <v>0.8343669275496205</v>
+      </c>
+      <c r="CF5">
+        <v>0.8894000680623541</v>
+      </c>
+      <c r="CG5">
+        <v>0.9598537066363649</v>
+      </c>
+      <c r="CH5">
+        <v>0.9939032295552453</v>
+      </c>
+      <c r="CI5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CJ5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CK5">
+        <v>0.9999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:52">
+    <row r="6" spans="1:89">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2414,115 +3743,226 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.02225719073078396</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.04312967823405893</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.04485551304651765</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.04541599187819234</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0654413211426205</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.06545127252047341</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.09457283357400276</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.1257414249608799</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.1408587302664766</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.2894054973191543</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.3433260089851948</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.3436052322715841</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.3995935201891483</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.5197656265440802</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.553123518126611</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.5540596429773125</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.554376824995568</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.5552259030618489</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.5552794619509583</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.5569636666578848</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.5934922242212638</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.6833541710197402</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.7661371291987858</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.8151865908901512</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.8290456811933766</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.8298006763175558</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.8523596617914341</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.8880077036300104</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.9215456665315231</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.9495186292341914</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.9757740203413959</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.9999999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0.03818166562786694</v>
+      </c>
+      <c r="BF6">
+        <v>0.1093705296834816</v>
+      </c>
+      <c r="BG6">
+        <v>0.1539665652340717</v>
+      </c>
+      <c r="BH6">
+        <v>0.1730897822992812</v>
+      </c>
+      <c r="BI6">
+        <v>0.3220793732598409</v>
+      </c>
+      <c r="BJ6">
+        <v>0.4500619375521145</v>
+      </c>
+      <c r="BK6">
+        <v>0.4660032022385239</v>
+      </c>
+      <c r="BL6">
+        <v>0.4700975017497214</v>
+      </c>
+      <c r="BM6">
+        <v>0.4727121890039812</v>
+      </c>
+      <c r="BN6">
+        <v>0.6657483348041272</v>
+      </c>
+      <c r="BO6">
+        <v>0.6836670148914019</v>
+      </c>
+      <c r="BP6">
+        <v>0.6953616112378981</v>
+      </c>
+      <c r="BQ6">
+        <v>0.6969846025966128</v>
+      </c>
+      <c r="BR6">
+        <v>0.6975218975510328</v>
+      </c>
+      <c r="BS6">
+        <v>0.6975218975510328</v>
+      </c>
+      <c r="BT6">
+        <v>0.7018553619295559</v>
+      </c>
+      <c r="BU6">
+        <v>0.7110618653628592</v>
+      </c>
+      <c r="BV6">
+        <v>0.7139143517146597</v>
+      </c>
+      <c r="BW6">
+        <v>0.7148059430130145</v>
+      </c>
+      <c r="BX6">
+        <v>0.7176012275501786</v>
+      </c>
+      <c r="BY6">
+        <v>0.7214422049134864</v>
+      </c>
+      <c r="BZ6">
+        <v>0.7736566737765679</v>
+      </c>
+      <c r="CA6">
+        <v>0.8057997450392129</v>
+      </c>
+      <c r="CB6">
+        <v>0.8204074983620759</v>
+      </c>
+      <c r="CC6">
+        <v>0.8219412442240702</v>
+      </c>
+      <c r="CD6">
+        <v>0.8388151709444034</v>
+      </c>
+      <c r="CE6">
+        <v>0.8391007684101676</v>
+      </c>
+      <c r="CF6">
+        <v>0.8750566508876132</v>
+      </c>
+      <c r="CG6">
+        <v>0.9533925330707672</v>
+      </c>
+      <c r="CH6">
+        <v>0.9852574220560903</v>
+      </c>
+      <c r="CI6">
+        <v>0.9876419963944119</v>
+      </c>
+      <c r="CJ6">
+        <v>1</v>
+      </c>
+      <c r="CK6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2540,302 +3980,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>0.0101103647772576</v>
+        <v>0.1202890815898279</v>
       </c>
       <c r="F2">
-        <v>0.5319295834395641</v>
+        <v>0.5549315606240022</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>800</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="L2">
-        <v>301</v>
+        <v>110</v>
       </c>
       <c r="M2">
         <v>800</v>
       </c>
       <c r="N2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E3">
-        <v>0.02233346244318216</v>
+        <v>0.1274061691397296</v>
       </c>
       <c r="F3">
-        <v>0.5013812640432892</v>
+        <v>0.5493815248312838</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>800</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="L3">
-        <v>301</v>
+        <v>110</v>
       </c>
       <c r="M3">
         <v>800</v>
       </c>
       <c r="N3" t="s">
-        <v>75</v>
-      </c>
-      <c r="O3" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="P3" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E4">
-        <v>0.03171157974142192</v>
+        <v>0.1919606724593967</v>
       </c>
       <c r="F4">
-        <v>0.5060776291634556</v>
+        <v>0.5006429044179969</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H4">
         <v>800</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="K4" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="L4">
-        <v>301</v>
+        <v>110</v>
       </c>
       <c r="M4">
         <v>800</v>
       </c>
       <c r="N4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O4" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="P4" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="E5">
-        <v>0.02275244693845764</v>
+        <v>0.1262332581647051</v>
       </c>
       <c r="F5">
-        <v>0.5049460749927374</v>
+        <v>0.6434663322993572</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H5">
         <v>800</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="L5">
-        <v>301</v>
+        <v>110</v>
       </c>
       <c r="M5">
         <v>800</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O5" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="P5" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="E6">
-        <v>0.02225719073078396</v>
+        <v>0.1093705296834816</v>
       </c>
       <c r="F6">
-        <v>0.5197656265440802</v>
+        <v>0.6657483348041272</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>800</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="L6">
-        <v>301</v>
+        <v>110</v>
       </c>
       <c r="M6">
         <v>800</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
-      </c>
-      <c r="O6" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="P6" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2853,302 +4278,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E2">
-        <v>0.0101103647772576</v>
+        <v>0.1202890815898279</v>
       </c>
       <c r="F2">
-        <v>0.7419125632126721</v>
+        <v>0.7819380264672219</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>800</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="L2">
-        <v>301</v>
+        <v>110</v>
       </c>
       <c r="M2">
         <v>800</v>
       </c>
       <c r="N2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E3">
-        <v>0.02233346244318216</v>
+        <v>0.1274061691397296</v>
       </c>
       <c r="F3">
-        <v>0.7401811318775051</v>
+        <v>0.767147975549783</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>800</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="L3">
-        <v>301</v>
+        <v>110</v>
       </c>
       <c r="M3">
         <v>800</v>
       </c>
       <c r="N3" t="s">
-        <v>75</v>
-      </c>
-      <c r="O3" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="P3" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D4">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="E4">
-        <v>0.03171157974142192</v>
+        <v>0.1919606724593967</v>
       </c>
       <c r="F4">
-        <v>0.7243235767992044</v>
+        <v>0.7068269540812144</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>800</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="K4" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="L4">
-        <v>301</v>
+        <v>110</v>
       </c>
       <c r="M4">
         <v>800</v>
       </c>
       <c r="N4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O4" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="P4" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
+        <v>58</v>
+      </c>
+      <c r="D5">
+        <v>73</v>
+      </c>
+      <c r="E5">
+        <v>0.1262332581647051</v>
+      </c>
+      <c r="F5">
+        <v>0.7115228368011369</v>
+      </c>
+      <c r="G5">
         <v>15</v>
-      </c>
-      <c r="D5">
-        <v>37</v>
-      </c>
-      <c r="E5">
-        <v>0.02275244693845764</v>
-      </c>
-      <c r="F5">
-        <v>0.7618534802560161</v>
-      </c>
-      <c r="G5">
-        <v>22</v>
       </c>
       <c r="H5">
         <v>800</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="L5">
-        <v>301</v>
+        <v>110</v>
       </c>
       <c r="M5">
         <v>800</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O5" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="P5" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D6">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="E6">
-        <v>0.02225719073078396</v>
+        <v>0.1093705296834816</v>
       </c>
       <c r="F6">
-        <v>0.7661371291987858</v>
+        <v>0.7018553619295559</v>
       </c>
       <c r="G6">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>800</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="L6">
-        <v>301</v>
+        <v>110</v>
       </c>
       <c r="M6">
         <v>800</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
-      </c>
-      <c r="O6" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="P6" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3166,302 +4576,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>0.0101103647772576</v>
+        <v>0.1202890815898279</v>
       </c>
       <c r="F2">
-        <v>0.8296715084243454</v>
+        <v>0.8500977357034699</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>800</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="L2">
-        <v>301</v>
+        <v>110</v>
       </c>
       <c r="M2">
         <v>800</v>
       </c>
       <c r="N2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D3">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="E3">
-        <v>0.02233346244318216</v>
+        <v>0.1274061691397296</v>
       </c>
       <c r="F3">
-        <v>0.8183963679571186</v>
+        <v>0.8061982882684182</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H3">
         <v>800</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="L3">
-        <v>301</v>
+        <v>110</v>
       </c>
       <c r="M3">
         <v>800</v>
       </c>
       <c r="N3" t="s">
-        <v>75</v>
-      </c>
-      <c r="O3" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="P3" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D4">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="E4">
-        <v>0.03171157974142192</v>
+        <v>0.1919606724593967</v>
       </c>
       <c r="F4">
-        <v>0.8525744061322672</v>
+        <v>0.8523453654581252</v>
       </c>
       <c r="G4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>800</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="K4" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="L4">
-        <v>301</v>
+        <v>110</v>
       </c>
       <c r="M4">
         <v>800</v>
       </c>
       <c r="N4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O4" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="P4" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="D5">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E5">
-        <v>0.02275244693845764</v>
+        <v>0.1262332581647051</v>
       </c>
       <c r="F5">
-        <v>0.8033277308583878</v>
+        <v>0.8121577600108826</v>
       </c>
       <c r="G5">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>800</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="L5">
-        <v>301</v>
+        <v>110</v>
       </c>
       <c r="M5">
         <v>800</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O5" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="P5" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D6">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E6">
-        <v>0.02225719073078396</v>
+        <v>0.1093705296834816</v>
       </c>
       <c r="F6">
-        <v>0.8151865908901512</v>
+        <v>0.8057997450392129</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>800</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="L6">
-        <v>301</v>
+        <v>110</v>
       </c>
       <c r="M6">
         <v>800</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
-      </c>
-      <c r="O6" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="P6" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3479,72 +4874,72 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E2">
-        <v>0.0101103647772576</v>
+        <v>0.1202890815898279</v>
       </c>
       <c r="F2">
-        <v>0.9221904560489623</v>
+        <v>0.9022421270580001</v>
       </c>
       <c r="G2">
         <v>26</v>
@@ -3553,98 +4948,92 @@
         <v>800</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="L2">
-        <v>301</v>
+        <v>110</v>
       </c>
       <c r="M2">
         <v>800</v>
       </c>
       <c r="N2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="E3">
-        <v>0.02233346244318216</v>
+        <v>0.1274061691397296</v>
       </c>
       <c r="F3">
-        <v>0.9170540793528543</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H3">
         <v>800</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="L3">
-        <v>301</v>
+        <v>110</v>
       </c>
       <c r="M3">
         <v>800</v>
       </c>
       <c r="N3" t="s">
-        <v>75</v>
-      </c>
-      <c r="O3" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="P3" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D4">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="E4">
-        <v>0.03171157974142192</v>
+        <v>0.1919606724593967</v>
       </c>
       <c r="F4">
-        <v>0.9011721667754556</v>
+        <v>0.9020478421932708</v>
       </c>
       <c r="G4">
         <v>26</v>
@@ -3653,128 +5042,119 @@
         <v>800</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="K4" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="L4">
-        <v>301</v>
+        <v>110</v>
       </c>
       <c r="M4">
         <v>800</v>
       </c>
       <c r="N4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O4" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="P4" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="D5">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="E5">
-        <v>0.02275244693845764</v>
+        <v>0.1262332581647051</v>
       </c>
       <c r="F5">
-        <v>0.916248696185763</v>
+        <v>0.9598537066363649</v>
       </c>
       <c r="G5">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H5">
         <v>800</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="L5">
-        <v>301</v>
+        <v>110</v>
       </c>
       <c r="M5">
         <v>800</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O5" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="P5" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D6">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="E6">
-        <v>0.02225719073078396</v>
+        <v>0.1093705296834816</v>
       </c>
       <c r="F6">
-        <v>0.9215456665315231</v>
+        <v>0.9533925330707672</v>
       </c>
       <c r="G6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6">
         <v>800</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="L6">
-        <v>301</v>
+        <v>110</v>
       </c>
       <c r="M6">
         <v>800</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
-      </c>
-      <c r="O6" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="P6" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
